--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1433,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1471,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1756,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1685,14 +1794,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1832,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,281 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+      <c r="D8" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -741,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -792,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>011913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华夏永泓一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -830,36 +694,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>011914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华夏永泓一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +948,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -924,36 +978,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>011913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华夏永泓一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.2588</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -962,36 +1016,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>011914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华夏永泓一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1270,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1056,36 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1094,36 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1402,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1188,36 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1534,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1320,36 +1564,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011913</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2588</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1358,226 +1602,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011914</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合C</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1173</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,7 +1666,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1642,36 +1696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011913</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.23</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.74</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2901</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1680,226 +1734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011914</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合C</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.74</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1457</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010738</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1266</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010739</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1913,144 +1777,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011913</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合A</t>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.23</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.74</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2901</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,226 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011914</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏永泓一年持有混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.74</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1457</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010738</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1266</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010739</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -988,22 +815,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2588</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1026,22 +853,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1054,36 +881,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>78.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1092,36 +919,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1130,36 +957,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1168,36 +995,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>010739</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>大成优选升级一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>78.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1206,36 +1033,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,36 +1127,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>011913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华夏永泓一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.2588</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1338,36 +1165,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>011914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华夏永泓一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1419,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1432,36 +1449,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1470,36 +1487,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1574,26 +1591,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1612,26 +1629,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1706,26 +1723,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1744,26 +1761,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1772,6 +1789,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02007-碧桂园.xlsx
+++ b/数据整理/stocks/港股/02007-碧桂园.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -616,7 +633,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -741,328 +1286,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011913</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏永泓一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2901</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏永泓一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1457</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010738</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1266</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010739</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1137,22 +1360,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2588</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1175,22 +1398,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1301</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1203,36 +1426,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>78.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1241,36 +1464,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1279,36 +1502,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1317,36 +1540,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>010739</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>大成优选升级一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>78.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1355,36 +1578,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,36 +1672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>011913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华夏永泓一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.2588</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1487,36 +1710,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>011914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>华夏永泓一年持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.1301</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1964,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1581,36 +1994,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1619,36 +2032,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1723,26 +2136,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1761,26 +2174,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1855,26 +2268,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1893,26 +2306,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1926,280 +2339,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0181</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>